--- a/biology/Médecine/1650_en_santé_et_médecine/1650_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1650_en_santé_et_médecine/1650_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1650_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1650_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1650 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1650_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1650_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>11 février : René Descartes meurt d'une pneumonie aiguë à Stockholm[1].
-6 novembre : Guillaume II d'Orange meurt de la petite vérole[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>11 février : René Descartes meurt d'une pneumonie aiguë à Stockholm.
+6 novembre : Guillaume II d'Orange meurt de la petite vérole.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1650_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1650_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Édition du De rachitide sive Morbo puerili, du médecin anglais Francis Glisson (1597-1677[3]).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Édition du De rachitide sive Morbo puerili, du médecin anglais Francis Glisson (1597-1677).</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1650_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1650_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,12 +588,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7 janvier : Giovanni Caldesi (it) (mort vers 1732), médecin et anatomiste italien[4].
-28 novembre : Jean Palfyn (mort en 1730), chirurgien belge[5].
-Charles Bernard (mort en 1711), chirurgien d'Anne Stuart, reine de Grande-Bretagne et d'Irlande[6].
-Anton Nuck (de) (mort en 1692), médecin et anatomiste néerlandais[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>7 janvier : Giovanni Caldesi (it) (mort vers 1732), médecin et anatomiste italien.
+28 novembre : Jean Palfyn (mort en 1730), chirurgien belge.
+Charles Bernard (mort en 1711), chirurgien d'Anne Stuart, reine de Grande-Bretagne et d'Irlande.
+Anton Nuck (de) (mort en 1692), médecin et anatomiste néerlandais.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1650_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1650_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +623,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Philippe d'Aquin (né vers 1576 ou 1578), médecin et philologue hébraïste français[8],[9].
-Jean Storms (né en 1559), mathématicien, médecin et poète belge[10].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Philippe d'Aquin (né vers 1576 ou 1578), médecin et philologue hébraïste français,.
+Jean Storms (né en 1559), mathématicien, médecin et poète belge.</t>
         </is>
       </c>
     </row>
